--- a/DaySale_2025-05-21_19-09.xlsx
+++ b/DaySale_2025-05-21_19-09.xlsx
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45798.797997765811</v>
+        <v>45798.798437121739</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -1147,7 +1147,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45798.797997765811</v>
+        <v>45798.798437121739</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -3147,7 +3147,7 @@
         <v>172</v>
       </c>
       <c t="s" r="M79" s="11">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
